--- a/data/key_advantages/key_advantages.xlsx
+++ b/data/key_advantages/key_advantages.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Client event\Dashboard\data\key_advantages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225984-7391-4F3E-9543-41A144B86FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PUMA" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="adidas" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>advantage_id</t>
   </si>
@@ -96,70 +102,18 @@
     <t>More cuteness is here. Shop PUMA x Hello Kitty and Friends. (English: More cuteness is here. Shop PUMA x Hello Kitty and Friends.)</t>
   </si>
   <si>
-    <t>Up to 60% off 3–11 Nov</t>
-  </si>
-  <si>
-    <t>Extra 15% with code LEVELUP on 2+ items</t>
-  </si>
-  <si>
-    <t>Multilingual regional promo versions</t>
-  </si>
-  <si>
-    <t>Limited-time discounts</t>
-  </si>
-  <si>
-    <t>Basket-building incentive</t>
-  </si>
-  <si>
-    <t>Localized communication</t>
-  </si>
-  <si>
-    <t>Most ads push a dated promo window (03–11 Nov) with up to 60% off. | Clear deadline-driven message encourages immediate purchase.</t>
-  </si>
-  <si>
-    <t>The promo becomes stronger if the shopper buys at least two items. | The code LEVELUP is explicitly mentioned, nudging higher basket value.</t>
-  </si>
-  <si>
-    <t>The same offer is rendered in Chinese to reach local/expat audiences. | This shows the brand tailors promo messaging per market while keeping the core offer.</t>
-  </si>
-  <si>
-    <t>From 03 - 11 Nov, score up to 60% off select styles. Unlock an extra 15% off when you shop min. 2 items* with code LEVELUP (English: From 03 - 11 Nov, score up to 60% off select styles. Unlock an extra 15% off when you shop min. 2 items* with code LEVELUP)</t>
-  </si>
-  <si>
-    <t>11 月 3-11 日，精選款式最低 6 折。選購 2 件商品*以上，輸入優惠碼 LEVELUP 再享 9 折 (English: From 3–11 Nov, selected styles up to 40% off. Buy 2+ items and use code LEVELUP for extra 10%.)</t>
-  </si>
-  <si>
-    <t>Extra 35% with promo code</t>
-  </si>
-  <si>
     <t>Iconic adidas style</t>
   </si>
   <si>
-    <t>Stacked/conditional discounts</t>
-  </si>
-  <si>
     <t>Brand/style positioning</t>
   </si>
   <si>
-    <t>Multiple creatives push an extra 35% off when a code is used on full-price and sale items. | This communicates a deeper discount than the headline promo.</t>
-  </si>
-  <si>
     <t>Several ads focus on taking your style up a notch with unmistakable adidas looks in different languages. | This stresses recognisable brand-led styling over price.</t>
   </si>
   <si>
-    <t>Get an extra 35% off with code FALL on full price and sale styles. Exclusions apply.</t>
-  </si>
-  <si>
     <t>Take it up a notch in unmistakable adidas style</t>
   </si>
   <si>
-    <t>Istakni se u nepogrešivom adidas stilu</t>
-  </si>
-  <si>
-    <t>"Seçili ürünlerde %35'e varan indirime ek sepette %15 indirim başladı
-Tüm indirimlere ek sepette %15 indirim seni bekliyor."</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -170,13 +124,82 @@
   </si>
   <si>
     <t>adidas – Extra 35% with promo code; Iconic adidas style</t>
+  </si>
+  <si>
+    <t>Nike as a brand of personal growth</t>
+  </si>
+  <si>
+    <t>Brand empowerment</t>
+  </si>
+  <si>
+    <t>Nike continues to position itself as more than a product brand, emphasizing personal growth, individual choices, and empowerment. | This resonates strongly with consumers who value authenticity and personal journeys.</t>
+  </si>
+  <si>
+    <t>Nike allowed me to retrace my growth over the past 10 years. Where I am and who I am today are the result of choices — and of never accepting compromises. I’m an artisan, not an influencer. #nikeshox #teamnike #ad</t>
+  </si>
+  <si>
+    <t>Revolutionary product design</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Nike's focus on revolutionary technology and cutting-edge product design continues to resonate. | Ads emphasize how their products go beyond style to offer complete experiences.</t>
+  </si>
+  <si>
+    <t>DNA rivoluzionario. Esperienza totale.</t>
+  </si>
+  <si>
+    <t>It’s not just about style. It’s the energy you carry when you put them on. #nikeshox #teamnike #ad</t>
+  </si>
+  <si>
+    <t>Nike Shox as a statement product</t>
+  </si>
+  <si>
+    <t>Statement product</t>
+  </si>
+  <si>
+    <t>Nike Shox is continuously pushed as a signature product with distinct branding, showcasing its power and innovation. | This taps into the desire for high-impact, noticeable products.</t>
+  </si>
+  <si>
+    <t>Née pour déranger. L’expérience totale. (Born to disturb. The total experience.)</t>
+  </si>
+  <si>
+    <t>La nouvelle Nike Shok Z, la paire qui ne te laisse pas indifférent ✨@nike #NikeShox #TeamNike Publicité 🎥 : @mehdiscovers (The new Nike Shok Z, the pair that doesn’t leave you indifferent ✨@nike #NikeShox #TeamNike Advertisement 🎥 : @mehdiscovers)</t>
+  </si>
+  <si>
+    <t>Schalt mit unverwechselbaren adidas Styles einen Gang höher (Switch up your style with unmistakable adidas styles)</t>
+  </si>
+  <si>
+    <t>Black Friday / adiClub Sign-up Incentives</t>
+  </si>
+  <si>
+    <t>Several ads offer an incentive to sign up for adiClub to participate in exclusive offers like winning a gift card. | This creates urgency around registration and exclusivity.</t>
+  </si>
+  <si>
+    <t>In occasione del Black Friday, iscriviti ad adiClub e crea la tua wishlist per avere la possibilità di vincere una Gift Card da 250 €. (On the occasion of Black Friday, sign up for adiClub and create your wishlist for a chance to win a €250 Gift Card.)</t>
+  </si>
+  <si>
+    <t>Suscríbete a adiClub y crea tu lista de deseos para poder ganar una tarjeta regalo por valor de 250€ este Black Friday. (Sign up for adiClub and create your wishlist to win a €250 gift card this Black Friday.)</t>
+  </si>
+  <si>
+    <t>adidas Vibes Fragrance</t>
+  </si>
+  <si>
+    <t>Category extension</t>
+  </si>
+  <si>
+    <t>This ad highlights adidas's entry into the fragrance market, positioning it as part of the lifestyle beyond just apparel. | This suggests adidas is becoming synonymous with an all-around lifestyle brand.</t>
+  </si>
+  <si>
+    <t>adidas Vibes Body &amp; Hair Mist mein Frische-Boost für jeden Mood, ob vor dem Training oder beim Entspannen zuhause #adidasfragrance #createdwithadidas (adidas Vibes Body &amp; Hair Mist, my freshness boost for any mood, whether before training or relaxing at home #adidasfragrance #createdwithadidas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +262,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +314,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -317,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,14 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -593,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -613,7 +646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -633,7 +666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -653,7 +686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -673,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -693,7 +726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -719,14 +752,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,124 +781,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -872,14 +872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,72 +901,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -973,31 +992,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/key_advantages/key_advantages.xlsx
+++ b/data/key_advantages/key_advantages.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Client event\Dashboard\data\key_advantages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225984-7391-4F3E-9543-41A144B86FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EB220-85D5-4907-A8A6-04033B4ADFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PUMA" sheetId="1" r:id="rId1"/>
-    <sheet name="Nike" sheetId="2" r:id="rId2"/>
-    <sheet name="adidas" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="Ignitis" sheetId="1" r:id="rId1"/>
+    <sheet name="LTG" sheetId="2" r:id="rId2"/>
+    <sheet name="LTOU" sheetId="3" r:id="rId3"/>
+    <sheet name="Exergi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>advantage_id</t>
   </si>
@@ -43,156 +43,158 @@
     <t>example_quote</t>
   </si>
   <si>
-    <t>Free shipping &amp; 60-day returns</t>
-  </si>
-  <si>
-    <t>Latest drops &amp; seasonal gear</t>
-  </si>
-  <si>
-    <t>Early/Exclusive access to outlet or Black Friday</t>
-  </si>
-  <si>
-    <t>Signature / athlete collabs</t>
-  </si>
-  <si>
-    <t>Online purchase incentives</t>
-  </si>
-  <si>
-    <t>Newness and collections</t>
-  </si>
-  <si>
-    <t>Promotional exclusivity</t>
-  </si>
-  <si>
-    <t>Athlete &amp; IP-based products</t>
-  </si>
-  <si>
-    <t>Multiple ads state free shipping from €50 (or local equivalent) and 60-day returns. | This lowers the purchase barrier for online shoppers and is repeated in several language variants.</t>
-  </si>
-  <si>
-    <t>Ads invite users to check the latest drops, newest products, or season protagonists. | This positions PUMA as a brand with constantly refreshed assortment and collabs.</t>
-  </si>
-  <si>
-    <t>Several ads offer exclusive/early access to discounts before Black Friday. | This creates urgency and a feeling of being in an insider group.</t>
-  </si>
-  <si>
-    <t>Repeated ads promote LaMelo Ball’s signature shoe and other IP-based collections. | These products are highlighted as fresh and desirable drops.</t>
-  </si>
-  <si>
-    <t>The hottest drops, the latest gear, all available online at PUMA. Get free shipping from 50€ + free 60-day returns. (English: The hottest drops, the latest gear, all available online at PUMA. Get free shipping from 50€ + free 60-day returns.)</t>
-  </si>
-  <si>
-    <t>Sono arrivati i nuovi protagonisti di stagione: scopri subito i drop che cambiano le regole. Spedizione gratuita da 50€. (English: Sono arrivati i nuovi protagonisti di stagione: scopri subito i drop che cambiano le regole. Spedizione gratuita da 50€.)</t>
-  </si>
-  <si>
-    <t>As seen on Lila Moss. Shop the new collection now. (English: As seen on Lila Moss. Shop the new collection now.)</t>
-  </si>
-  <si>
-    <t>Non aspettare il Black Friday. ⚡️
-Iscriviti ora e accedi in anteprima al PUMA Outlet Scalo Milano fino al 12.11. (English: Don't wait for Black Friday. Sign up now and get early access until 12.11.)</t>
-  </si>
-  <si>
-    <t>Exclusieve toegang geopend!
-Wees er vroeg bij en pak -30 % korting voor iedereen anders. (English: Exclusive access opened! Be early and grab -30% before everyone else.)</t>
-  </si>
-  <si>
-    <t>PUMA x Sonic The Hedgehog is out now at PUMA.com. (English: PUMA x Sonic The Hedgehog is out now at PUMA.com.)</t>
-  </si>
-  <si>
-    <t>More cuteness is here. Shop PUMA x Hello Kitty and Friends. (English: More cuteness is here. Shop PUMA x Hello Kitty and Friends.)</t>
-  </si>
-  <si>
-    <t>Iconic adidas style</t>
-  </si>
-  <si>
-    <t>Brand/style positioning</t>
-  </si>
-  <si>
-    <t>Several ads focus on taking your style up a notch with unmistakable adidas looks in different languages. | This stresses recognisable brand-led styling over price.</t>
-  </si>
-  <si>
-    <t>Take it up a notch in unmistakable adidas style</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>PUMA – Free shipping &amp; 60-day returns; Latest drops &amp; seasonal gear; Early/Exclusive access to outlet or Black Friday; Signature / athlete collabs</t>
-  </si>
-  <si>
-    <t>Nike – Up to 60% off 3–11 Nov; Extra 15% with code LEVELUP on 2+ items; Multilingual regional promo versions</t>
-  </si>
-  <si>
-    <t>adidas – Extra 35% with promo code; Iconic adidas style</t>
-  </si>
-  <si>
-    <t>Nike as a brand of personal growth</t>
-  </si>
-  <si>
-    <t>Brand empowerment</t>
-  </si>
-  <si>
-    <t>Nike continues to position itself as more than a product brand, emphasizing personal growth, individual choices, and empowerment. | This resonates strongly with consumers who value authenticity and personal journeys.</t>
-  </si>
-  <si>
-    <t>Nike allowed me to retrace my growth over the past 10 years. Where I am and who I am today are the result of choices — and of never accepting compromises. I’m an artisan, not an influencer. #nikeshox #teamnike #ad</t>
-  </si>
-  <si>
-    <t>Revolutionary product design</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>Nike's focus on revolutionary technology and cutting-edge product design continues to resonate. | Ads emphasize how their products go beyond style to offer complete experiences.</t>
-  </si>
-  <si>
-    <t>DNA rivoluzionario. Esperienza totale.</t>
-  </si>
-  <si>
-    <t>It’s not just about style. It’s the energy you carry when you put them on. #nikeshox #teamnike #ad</t>
-  </si>
-  <si>
-    <t>Nike Shox as a statement product</t>
-  </si>
-  <si>
-    <t>Statement product</t>
-  </si>
-  <si>
-    <t>Nike Shox is continuously pushed as a signature product with distinct branding, showcasing its power and innovation. | This taps into the desire for high-impact, noticeable products.</t>
-  </si>
-  <si>
-    <t>Née pour déranger. L’expérience totale. (Born to disturb. The total experience.)</t>
-  </si>
-  <si>
-    <t>La nouvelle Nike Shok Z, la paire qui ne te laisse pas indifférent ✨@nike #NikeShox #TeamNike Publicité 🎥 : @mehdiscovers (The new Nike Shok Z, the pair that doesn’t leave you indifferent ✨@nike #NikeShox #TeamNike Advertisement 🎥 : @mehdiscovers)</t>
-  </si>
-  <si>
-    <t>Schalt mit unverwechselbaren adidas Styles einen Gang höher (Switch up your style with unmistakable adidas styles)</t>
-  </si>
-  <si>
-    <t>Black Friday / adiClub Sign-up Incentives</t>
-  </si>
-  <si>
-    <t>Several ads offer an incentive to sign up for adiClub to participate in exclusive offers like winning a gift card. | This creates urgency around registration and exclusivity.</t>
-  </si>
-  <si>
-    <t>In occasione del Black Friday, iscriviti ad adiClub e crea la tua wishlist per avere la possibilità di vincere una Gift Card da 250 €. (On the occasion of Black Friday, sign up for adiClub and create your wishlist for a chance to win a €250 Gift Card.)</t>
-  </si>
-  <si>
-    <t>Suscríbete a adiClub y crea tu lista de deseos para poder ganar una tarjeta regalo por valor de 250€ este Black Friday. (Sign up for adiClub and create your wishlist to win a €250 gift card this Black Friday.)</t>
-  </si>
-  <si>
-    <t>adidas Vibes Fragrance</t>
-  </si>
-  <si>
-    <t>Category extension</t>
-  </si>
-  <si>
-    <t>This ad highlights adidas's entry into the fragrance market, positioning it as part of the lifestyle beyond just apparel. | This suggests adidas is becoming synonymous with an all-around lifestyle brand.</t>
-  </si>
-  <si>
-    <t>adidas Vibes Body &amp; Hair Mist mein Frische-Boost für jeden Mood, ob vor dem Training oder beim Entspannen zuhause #adidasfragrance #createdwithadidas (adidas Vibes Body &amp; Hair Mist, my freshness boost for any mood, whether before training or relaxing at home #adidasfragrance #createdwithadidas)</t>
+    <t>Company culture, community &amp; team spirit</t>
+  </si>
+  <si>
+    <t>Innovation, technology &amp; digitalisation</t>
+  </si>
+  <si>
+    <t>Learning, development &amp; leadership growth</t>
+  </si>
+  <si>
+    <t>Purpose, impact &amp; sustainability</t>
+  </si>
+  <si>
+    <t>Students, graduates &amp; early careers</t>
+  </si>
+  <si>
+    <t>Multiple Ignitis ads tagged with 'Company culture, community &amp; team spirit' (e.g. rows 15, 21, 27) highlight this theme in their copy.</t>
+  </si>
+  <si>
+    <t>Multiple Ignitis ads tagged with 'Innovation, technology &amp; digitalisation' (e.g. rows 0, 14, 25) highlight this theme in their copy.</t>
+  </si>
+  <si>
+    <t>Multiple Ignitis ads tagged with 'Learning, development &amp; leadership growth' (e.g. rows 24, 25, 31) highlight this theme in their copy.</t>
+  </si>
+  <si>
+    <t>Multiple Ignitis ads tagged with 'Purpose, impact &amp; sustainability' (e.g. rows 3, 4, 5) highlight this theme in their copy.</t>
+  </si>
+  <si>
+    <t>Multiple Ignitis ads tagged with 'Students, graduates &amp; early careers' (e.g. rows 1, 2, 8) highlight this theme in their copy.</t>
+  </si>
+  <si>
+    <t>„Ignitis grupėje“ rūpintis žmonių gerove mums svarbu ne vieną, o kiekvieną dieną.
+Nuo 2022 m. mūsų organizacijoje veikia gerovės mentorių programa – tai kolegos savanoriai, apmokyti teikti emocinį p... (At Ignitis Group, caring about people's well‑being matters to us not just one day, but every day; since 2022 our well‑being mentors have been supporting colleagues.)</t>
+  </si>
+  <si>
+    <t>Atraskite energetikos pasaulį iš arčiau – užsukite į „Ignitis gamybos“ atvirų durų dieną liepos 4 d.!
+⚡️ Gyvos istorijos, greitieji darbo pokalbiai ir pažintis su elektros gamyba – viskas vienoje viet... (Discover the world of energy up close – visit Ignitis Generation Open Day on 4 July, with live stories, speed interviews and a look behind the scenes of electricity generation.)</t>
+  </si>
+  <si>
+    <t>How much do we really know about the people behind our energy? 🌿
+Meet Marius — a job full of surprises, from bird nests to art to plants in electrical cabinets. Yet precision, responsibility, and lear...</t>
+  </si>
+  <si>
+    <t>See how logic meets creativity and how artificial intelligence becomes a daily tool. Discover if this profession might be the one waiting for you.</t>
+  </si>
+  <si>
+    <t>Domiesi technologijomis ir nori, kad tavo darbas turėtų prasmę?
+Tapk atsinaujinančios energijos parkų operatore (-iumi) „Ignitis Renewables“ komandoje.
+Stebėk, valdyk ir užtikrink, kad žalia energija ... (Interested in technology and want your work to have meaning? Become part of renewable energy technologies and make sure green energy always reaches people.)</t>
+  </si>
+  <si>
+    <t>🔌 Julius Kruonio hidroakumuliacinę elektrinę vadina sava: vaikystėje, kai tai dar buvo leidžiama, čia žvejodavo su krikštatėviu. Tada nė neįsivaizdavo, kad vieną dieną dirbs inžinieriumi „Ignitis gamy... (Julius calls the Kruonis pumped‑storage plant his own – as a child he watched it being built and now dreams of working there as an engineer at Ignitis Generation.)</t>
+  </si>
+  <si>
+    <t>Kiek iš tikrųjų žinome apie žmones, kurie rūpinasi energetika? 🌿
+Kviečiame žiūrėti 1️⃣ „Išpakuok profesiją„ epizodą ir iš arčiau pažinti mūsų kolegų kasdienybę.
+Susipažinkite su Mariumi, kurio darba... (How much do we really know about the people who look after our energy system? Meet Marius, whose work is full of surprises, responsibility and constant learning.)</t>
+  </si>
+  <si>
+    <t>Remigijų prisijungti prie „Ignitis gamybos“ komandos paskatino kolegos rekomendacija. Tai paspartino sprendimą po 12 metų grįžti iš svetur, nes, kaip sako mūsų kolega, norėjo, kad vaikai augtų Lietuvo... (Remigijus joined the Ignitis Generation team on a colleague’s recommendation and because he wanted his children to grow up in Lithuania; as an electrical engineer he finds no monotony in his work.)</t>
+  </si>
+  <si>
+    <t>Prisijunk prie elektrotechnikų komandos „Ignitis gamyboje“. Kurkime 100% žalią ir saugią energetikos ekosistemą drauge! (Join the team of electrical technicians at Ignitis Generation and help create a 100% green and safe energy ecosystem together.)</t>
+  </si>
+  <si>
+    <t>Prisijunk prie „Ignitis gamyba“ elektrotechnikų komandos. Prisidėkime prie Lietuvos energetikos sistemos saugumo drauge. (Join the electrical technicians team at Ignitis Generation and help strengthen the security of Lithuania's energy system.)</t>
+  </si>
+  <si>
+    <t>Turi elektrotechninį išsilavinimą? Įgalink savo patirtį didžiausioje Lietuvos elektrinėje – Elektrėnų komplekse. (Do you have an electrical engineering background? Put your experience to work at the largest power plant in Lithuania – the Elektrėnai complex.)</t>
+  </si>
+  <si>
+    <t>Recruitment &amp; career opportunities</t>
+  </si>
+  <si>
+    <t>Multiple LTG ads consistently emphasise recruitment and the importance of joining the national rail mobility transformation.</t>
+  </si>
+  <si>
+    <t>⚡🚆Kviečiame prisijungti prie „LTG Cargo“ komandos ir kartu kurti geležinkelių transporto ateitį... (We are looking for people who want to create the future of rail transport together.)</t>
+  </si>
+  <si>
+    <t>⚡🚆Kviečiame prisijungti prie komandos, kuri kuria mobilumo ateitį Lietuvoje... (Join the team shaping the future of mobility in Lithuania.)</t>
+  </si>
+  <si>
+    <t>Multiple LTG ads consistently emphasise the purpose-driven role LTG plays in transforming national mobility and logistics.</t>
+  </si>
+  <si>
+    <t>Čia traukia. Prasmė. Ambicija. Žmonės. Prisijunk. (It attracts. Purpose. Ambition. People. Join.)</t>
+  </si>
+  <si>
+    <t>Multiple LTG ads consistently emphasise meaningful paid internships and early-career opportunities.</t>
+  </si>
+  <si>
+    <t>LTG grupė kviečia į apmokamą vasaros stažuočių programą... (LTG Group invites you to a paid summer internship.)</t>
+  </si>
+  <si>
+    <t>Tavo vasara gali būti prasminga – prisijunk prie stažuočių programos... (Your summer can be meaningful – join the LTG internship program.)</t>
+  </si>
+  <si>
+    <t>Multiple Vilnius Airport ads emphasise recruitment and career growth in aviation.</t>
+  </si>
+  <si>
+    <t>Naujos karjeros galimybės ir Lietuvai svarbūs infrastruktūros projektai... (New career opportunities and important infrastructure projects for Lithuania.)</t>
+  </si>
+  <si>
+    <t>Work environment &amp; ways of working</t>
+  </si>
+  <si>
+    <t>Multiple Vilnius Airport ads emphasise a supportive work environment and development.</t>
+  </si>
+  <si>
+    <t>Jei užsinorėsite dirbti – tam yra ne tik darbo vieta, bet ir aplinka, kuri leidžia augti... (If you want to work – you get not just a job, but an environment that lets you grow.)</t>
+  </si>
+  <si>
+    <t>Multiple Vilnius Airport ads highlight aviation projects of national importance and public value.</t>
+  </si>
+  <si>
+    <t>Naujos karjeros galimybės ir Lietuvai svarbūs projektai aviacijoje... (New career opportunities and nationally important projects in aviation.)</t>
+  </si>
+  <si>
+    <t>Multiple Stockholm Exergi ads stress that the company supplies heat, cooling and light to over a million people every day, and that employees play a key role in creating sustainable energy for future generations.</t>
+  </si>
+  <si>
+    <t>När du jobbar hos oss får du möjlighet att dela din energi med över en miljon människor... (When you work with us, you get the chance to share your energy with over a million people every day. You help heat when it’s cold, cool when it’s warm and light up the city when it’s dark. Want to know more? Click through to read the full ad.)</t>
+  </si>
+  <si>
+    <t>Vi arbetar för att förbättra vardagen för över en miljon människor varje dag... (We work to improve everyday life for over a million people in Stockholm every day. Our energy heats, cools and lights the city, and our employees play a key role in making that difference.)</t>
+  </si>
+  <si>
+    <t>Several campaigns describe Stockholm Exergi as the result of hundreds of committed people and invite candidates to join the company’s ongoing future journey in key roles.</t>
+  </si>
+  <si>
+    <t>Stockholm Exergi är produkten av hundratals engagerade människor... (Stockholm Exergi is the result of hundreds of committed people who ensure that Stockholm has sustainable energy every day. Now we are looking for you who want to join our continued future journey.)</t>
+  </si>
+  <si>
+    <t>När du jobbar hos oss får du möjlighet att dela din energi med över en miljon människor... (When you work with us, you can share your energy with over a million people every day. You heat, cool and light up an entire city. Welcome with your application.)</t>
+  </si>
+  <si>
+    <t>Job ads emphasise working with some of the world’s most modern plants, advanced technology and pioneering methods to build circular energy systems for the city.</t>
+  </si>
+  <si>
+    <t>Hos oss får du en chans att jobba med några av världens modernaste energilösningar... (With us you get the chance to work with some of the world’s most modern facilities and advanced technology. We develop pioneering methods to create circular energy systems for the city.)</t>
+  </si>
+  <si>
+    <t>För att kunna leverera lösningar som håller för framtiden arbetar vi med ny teknik... (To be able to deliver solutions that are ready for the future, we constantly develop and test new technology. In this way we can drive development toward a better world.)</t>
+  </si>
+  <si>
+    <t>Messaging focuses on a warm culture, strong team spirit, shared goals and an environment where new ideas are welcomed and colleagues support each other.</t>
+  </si>
+  <si>
+    <t>Bli en del av en arbetsplats med en värmande företagskultur... (Become part of a workplace with a warm company culture. We have strong team spirit, work together toward shared goals and value new ideas.)</t>
+  </si>
+  <si>
+    <t>När du jobbar hos oss får du möjlighet att dela din energi med över en miljon människor... (When you work with us, you can share your energy with over a million people every day. Become part of Team Exergi.)</t>
   </si>
 </sst>
 </file>
@@ -560,203 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,33 +595,294 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E92574-B5EC-4220-A110-7D2B8D59550C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,16 +890,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,16 +910,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,16 +930,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -872,32 +951,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AAE3CC-44D8-4469-8CA0-B663208E0BDA}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -906,84 +985,59 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -992,31 +1046,193 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7D9B6-DC2F-4DEB-BBDA-478C9604D39B}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
